--- a/data/trans_camb/P25A_N_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_N_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>19,88</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 13,12</t>
+          <t>-12,56; 17,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 8,39</t>
+          <t>-11,48; 17,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 10,42</t>
+          <t>-10,83; 21,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 6,46</t>
+          <t>-15,56; 19,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,7</t>
+          <t>-22,44; 13,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 5,46</t>
+          <t>0,9; 42,32</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 15,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 10,95</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 31,04</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>56,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,38%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>-15,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>80,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>77,43%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,03; 207,21</t>
+          <t>-77,56; 448,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 138,07</t>
+          <t>-69,78; 407,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 62,88</t>
+          <t>-61,4; 483,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 38,22</t>
+          <t>-49,03; 122,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 68,37</t>
+          <t>-65,92; 91,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 44,29</t>
+          <t>-2,0; 279,48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-42,79; 134,33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,22; 89,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-15,97; 254,71</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,99</t>
+          <t>-8,12; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,99</t>
+          <t>-8,97; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 4,32</t>
+          <t>-4,48; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,79</t>
+          <t>-6,44; 8,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,78</t>
+          <t>-3,74; 10,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,33</t>
+          <t>-0,31; 15,73</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 4,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 3,76</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 9,43</t>
         </is>
       </c>
     </row>
@@ -833,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>-33,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>-51,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,12 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>60,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41,56%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 49,29</t>
+          <t>-74,12; 95,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 46,97</t>
+          <t>-83,94; 44,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 41,68</t>
+          <t>-47,07; 194,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 73,79</t>
+          <t>-40,96; 84,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 23,74</t>
+          <t>-25,59; 108,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 42,61</t>
+          <t>-3,53; 158,61</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-41,6; 58,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-43,09; 52,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 121,14</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,79</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,82</t>
+          <t>-10,92; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 8,36</t>
+          <t>-7,19; 10,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 7,41</t>
+          <t>-4,59; 13,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 9,54</t>
+          <t>-2,93; 7,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,04</t>
+          <t>-0,83; 11,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,25</t>
+          <t>1,62; 13,97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 3,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 9,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 11,21</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>-33,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>122,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36,75%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>72,38%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 56,45</t>
+          <t>-73,54; 64,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 149,05</t>
+          <t>-54,29; 150,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 133,2</t>
+          <t>-35,33; 183,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 197,34</t>
+          <t>-41,67; 234,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 63,92</t>
+          <t>-17,89; 307,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 111,04</t>
+          <t>13,17; 372,18</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-48,75; 60,87</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-18,4; 143,56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 184,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 24,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 36,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 36,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 51,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 29,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 1,72</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 2,76</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 7,57</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 6,55</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 7,95</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 18,68</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 3,06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 11,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-24,9%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-15,49%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>94,27%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>66,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-58,62; 27,05</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-54,19; 42,76</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 109,74</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-23,37; 72,39</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 80,54</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>32,74; 193,84</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-29,72; 34,62</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-24,86; 47,07</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 124,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
